--- a/weeklyReport/5_volume_and_openInterest/RatioPctChange.xlsx
+++ b/weeklyReport/5_volume_and_openInterest/RatioPctChange.xlsx
@@ -487,10 +487,10 @@
         <v>-2.69</v>
       </c>
       <c r="C4">
-        <v>-7.36</v>
+        <v>-7.35</v>
       </c>
       <c r="D4">
-        <v>-18.09</v>
+        <v>-18.08</v>
       </c>
       <c r="E4">
         <v>-20.58</v>
@@ -499,7 +499,7 @@
         <v>-36.41</v>
       </c>
       <c r="G4">
-        <v>-17.026</v>
+        <v>-17.022</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>-0.55</v>
       </c>
       <c r="C5">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="D5">
         <v>-4.75</v>
@@ -522,7 +522,7 @@
         <v>-39.13</v>
       </c>
       <c r="G5">
-        <v>-11.05</v>
+        <v>-11.048</v>
       </c>
     </row>
     <row r="6" spans="1:7">
